--- a/biology/Botanique/Georg_Fresenius/Georg_Fresenius.xlsx
+++ b/biology/Botanique/Georg_Fresenius/Georg_Fresenius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Baptist Georg Wolfgang Fresenius (25 septembre 1808 – 1er décembre 1866) est un médecin et botaniste allemand, connu pour ses travaux dans le domaine de la phycologie. Il est originaire de Francfort-sur-le-Main . 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine aux universités de Heidelberg, Wurtzbourg et Giessen, où il obtient son doctorat en 1829. Il s’installe par la suite à Francfort-sur-le-Main, où il a travaillé comme médecin généraliste tout en s’intéressant activement à la botanique. 
 À partir de 1831, Fresenius est conservateur de l'herbier Senckenberg et professeur à l'Institut de recherche Senckenberg (Forschungsinstitut Senckenberg). Avec son élève Anton de Bary (1831–1888), il mène des enquêtes microscopiques sur les algues et les champignons. Il meurt à Francfort le 1er décembre 1866 à l'âge de 58 ans. 
